--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-13.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-13.xlsx
@@ -424,14 +424,10 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>Input component</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Rendered HTML element</t>
-        </is>
-      </c>
+          <t>@layout MainLayout</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -439,12 +435,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>InputCheckbox</t>
+          <t>You can specify the layout for all components in a folder and subfolders using an</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;input type="checkbox"&gt;</t>
+          <t>*_Imports.razor* file.</t>
         </is>
       </c>
     </row>
@@ -454,14 +450,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>InputDate</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;input type="date"&gt;</t>
-        </is>
-      </c>
+          <t>You can also specify a default layout for all your pages using the Router component.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -469,12 +461,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>InputNumber</t>
+          <t>Master Pages can define multiple content placeholders, but layouts in Blazor only have a property. This limitation of Blazor layout components will hopefully be addressed in a future</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;input type="number"&gt;</t>
+          <t>single Body release.</t>
         </is>
       </c>
     </row>
@@ -484,12 +476,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>InputSelect</t>
+          <t>Master Pages in ASP.NET Web Forms can be nested. That is, a Master Page may also use a Page. Layout components in Blazor may be nested too. You can apply a layout component to component. The contents of the inner layout will be rendered within the outer layout.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;select&gt;</t>
+          <t>Master a layout</t>
         </is>
       </c>
     </row>
@@ -499,14 +491,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>InputText</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;input&gt;</t>
-        </is>
-      </c>
+          <t>ChildLayout.razor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -514,14 +502,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>InputTextArea</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>&lt;textarea&gt;</t>
-        </is>
-      </c>
+          <t>@layout MainLayout &lt;h2&gt;Child layout&lt;/h2&gt; &lt;div&gt;</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
